--- a/INDIVIDUAL_ARGUMENTS/murder_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/murder_contra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>#id</t>
   </si>
@@ -29,208 +28,313 @@
     <t>I wouldnt turn her in becuase she is my wife. She made a mistake that we can get over it. If she trusted me by telling me what she did then I couldn't do that to her.</t>
   </si>
   <si>
+    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33373</t>
   </si>
   <si>
     <t>I really dont have an exact yes or no answer to this question depending on the situation. If It really got all out of hand and the police new it was my man that did it and they got all the evidence and witnesses that prove it was him that convicted the crime then yes I would turn him in. If they know its him then its just a matter of time.</t>
   </si>
   <si>
+    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33346</t>
   </si>
   <si>
     <t>No. I would not turn my spouse in. I would try to convince him to do the right thing and turn his own self in. But i dont see it as my place to go and turn him in. but it also depends on the reason behind him killing someone. it just cant be some random killing because i would turn him in for that for the fact that i would think that i would be next to get killed.</t>
   </si>
   <si>
+    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33259</t>
   </si>
   <si>
     <t>All I want to say to the spouses of the people on this side of the debate, "Don't confide in your spouse and tell them that you killed somebody; they'll turn you in! And if they find out on their own, take them out before they turn you in!" ;)</t>
   </si>
   <si>
+    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33352</t>
   </si>
   <si>
     <t>If my husband committed murder I wouldn't turn them in because I know he must have had a good reason to do it. Everybody makes mistakes in this world and this would be a wrong decision he took. I love him and I feel that in love we should be by your partner throught the thick and thin no matter what. I wouldn't want my husband to be in jail.</t>
   </si>
   <si>
+    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33328</t>
   </si>
   <si>
     <t>Well it all pretty much depends....Like if she killed someone that deserved it well it would still be scary to sleep with them so this a maybe / maybe not situation... So yeah im not to sure.</t>
   </si>
   <si>
+    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33285</t>
   </si>
   <si>
     <t>No I wouldn't turn in my spouse. Just because the girl that i married killed someone doesn't make them a terrible person. People make mistakes.</t>
   </si>
   <si>
+    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33358</t>
   </si>
   <si>
     <t>No way,  That's even better than a prenup :)  her: "I'm leaving you and taking half your shit."  me: "Hope you like prison b*^#h"</t>
   </si>
   <si>
+    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33341</t>
   </si>
   <si>
     <t>If my spouse committed murder I would not turn him in. I would do the exact opposite I will help him hide all evidence if any, I will move if we had to, and I will never bring it up to his attention again. If my husband killed someone, he knew what he was doing, so there or it was for a cost. It would be hard for me to turn in the one I love.</t>
   </si>
   <si>
+    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33279</t>
   </si>
   <si>
     <t>It really depends on what had happened, she would have to tell me the story and I would have to be able to sympathize with her and understand why she did what she did. If I truly felt that she was remorseful for what she did and I can sympathize with her about why she committed murder than maybe I could forgive her and not turn her in.</t>
   </si>
   <si>
+    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
+  </si>
+  <si>
     <t>arg33233</t>
   </si>
   <si>
     <t>If my wife confided in me than I wouldn't betray her trust. She trusted me to support and help her and I would. I would be extremely angry and maybe even divorce her depending on what type of murder whether it be like a self defence murder or she just thought it would be fun.</t>
   </si>
   <si>
+    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
+  </si>
+  <si>
     <t>arg33262</t>
   </si>
   <si>
     <t>Of course not! Absolutely not! Its something that happened, a mistake she made, and something she would definitely learn from. She was strong enough to tell me about it, something not a lot of people of would done. I'm pretty sure that's not easy for someone to do. Anyone else would of just kept to themselves and not tell anyone. If that were to ever happen, which I strongly doubt, I would definitely support her and be with her, no matter what!</t>
   </si>
   <si>
+    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33353</t>
   </si>
   <si>
     <t>No, I wouldn't turn my spouse in I would just be like. You told me I had know part in it. And we are just going to go our separate ways. But truthfully I wouldn't want to know in the first place.</t>
   </si>
   <si>
+    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33255</t>
   </si>
   <si>
     <t>Love is much greater then any mistake. I know things happen but my wife will be able to confide in me no matter what goes wrong. I made a commitment to stay whit her through rough times and I will. Murder is a unforgivable mistake but love is not.</t>
   </si>
   <si>
+    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
+  </si>
+  <si>
     <t>arg33326</t>
   </si>
   <si>
     <t>No I would not turn them in, because it would be to weird for me to turn them in to the police. I would probably wouldn't tell anybody. I would hope that the police catch them but I would not say anything. I would tell them to turn their self in.</t>
   </si>
   <si>
+    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33288</t>
   </si>
   <si>
     <t>As human beings, we are selfish and have been fabricated with a survival mechanism that tell is to do whatever whenever to protect the ones that we love. I would do everything in my power to protect my love, even if that means taking this horrible secret to the grave.</t>
   </si>
   <si>
+    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg33237</t>
   </si>
   <si>
     <t>If my wife was to commit murder and told me about it. I wouldnt turn her in because if you really love her then you would have her back through anything good or bad.</t>
   </si>
   <si>
+    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33354</t>
   </si>
   <si>
     <t>No I would not turn in my spouse because when you get married you promise to be there for eachother through good or through worse and I would anything to help her but, don't get me wrong though if my spouse were to get caught I will not go down with her because most likley I would have a family to take care of and would not leave them for anything.</t>
   </si>
   <si>
+    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33300</t>
   </si>
   <si>
     <t>If my husband where to commit a murder I would most likely not turn him in. He's my husband and I'm going to be there for him for better or for worst. Yes he made a big mistake and he should pay for it I know that but i don't think I'll have the heart to turn in the man I love. We have to protect each other and be their for each other no matter how bad it is. Even if it makes me his accomplice.</t>
   </si>
   <si>
+    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33252</t>
   </si>
   <si>
     <t>If I do that, then who's going to cook and clean house? Who's gonna have sex with me? I'm too old to do the dating scene all over again. Besides, you don't specify who she killed or why. Maybe she had her reasons. Not everyone deserves to live, you know? ;)</t>
   </si>
   <si>
+    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33283</t>
   </si>
   <si>
     <t>I wouldn't turn my wife in because I love her and married her for a reason. I would trust my wife that she killed someone for a good reason, relatively because murder is still murder. Gene hackman killed the guy her wife was cheating with.</t>
   </si>
   <si>
+    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33243</t>
   </si>
   <si>
     <t>No I wouldn't tell on him because you never know what the reason might be for him to kill that person or it could have been for self defense for all we know and if the people come question me about anything I DON'T KNOW NOTHING.....he have my trust and I wouldn't let him down for no reason plus his secret is safe with me...</t>
   </si>
   <si>
+    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33320</t>
   </si>
   <si>
     <t>I dont believe i would turn them in because of love.But i certainly would not stay with her; i would move away from her as far as i could.For the simple reason i wouldnt want to be involed with the crime, because i knew about it.</t>
   </si>
   <si>
+    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33242</t>
   </si>
   <si>
     <t>More than likely I would not turn in my spouse, because there is that love that binds us together. But on the flip side, if it was just down right cold blooded murder, yes I would turn them in.</t>
   </si>
   <si>
+    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33257</t>
   </si>
   <si>
     <t>Well I definitely would stick by my vows of marriage through the good times and the bad but I mean some people get married without truly knowing who the person is. Hmmm that is a hard one. Well if I truly loved this person I would not turn them in because, I mean I made a promise to them that they could turn to me for help in thick and thin till death do us part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
+    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg33265</t>
   </si>
   <si>
     <t>No way, Marriage (in my eyes) is supposed to be a Bond/Partnership.  Not that I'm calling anyone who would turn his or her spouse in to police  A "Snitch" or a rat, but If my wife where to kill someone,'  I wouldnt hesitate to flex the 5th amendment! Murder Is a heavy offense  But Remember, when you say "I DO", you're basically inviting the person  You're marrying into the Family. So ask yourself... would YOU turn in FAMILY??  If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
+    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg33319</t>
   </si>
   <si>
     <t>I really don't know because i think it depends on who she murdered and how it happened. If it was self defense then no I wouldn't tell the police, but if she just went crazy and murdered someone then yes i would tell the police.</t>
   </si>
   <si>
+    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33343</t>
   </si>
   <si>
     <t>I would turn him in because he murdered someone. Don't get me worng I would try to persuade him first to turn himself in but if that didn't happen I would have to take reponsiblity for him. Plus I wouldn't want to feel the guilt of always knowing that I didn't turn that murder in. If he truly loved me I wouldn't have killed someone.</t>
   </si>
   <si>
+    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
+  </si>
+  <si>
     <t>arg33296</t>
   </si>
   <si>
     <t>If my husband had committed a murder I think I would not turn him in because my feelings would be stronger that the fear of having a bad husband, I am not sure of my exact answer but I am sure that I couldn't look at him everyday and act like nothing happened, I believe that feeling are stronger than anything and I would not like the fact that he would probably be sentenced to death or spend the rest of his life in prison.</t>
   </si>
   <si>
+    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33225</t>
   </si>
   <si>
     <t>I dont think i could turn my spouse in, or my family and friends if they committed a murder because those people are way to close to me and i couldnt picture my life without any of them. Why would anyone send away someone they love, i think that is wong especialy if you live with the person.</t>
   </si>
   <si>
+    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33270</t>
   </si>
   <si>
     <t>No. I couldn't imagine turning on my spouse like that. I know if i were to do something like that she will be right there next to me not saying a word. Plus if she were to kill someone it would be for a good reason.</t>
   </si>
   <si>
+    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33333</t>
   </si>
   <si>
     <t>No. I wouldn't be able to turn them in. If you truly love someone you would do anything to help them. Especially if it was an accident.  Though, if he killed some one just because he felt like killing somone it may be a little different, because I wouldnt want him to go nuts and kill me too.</t>
   </si>
   <si>
+    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33298</t>
   </si>
   <si>
     <t>If it was the person you truly love and want to spend the rest of your life with then it's a definitely no. People make mistakes but although it's a major crime to murder someone I would still not turn in the person I love the most. If I plan on staying with that person I love for the rest of my life then I would stick with them and never turn them in. And if that means that I am part of that murder by not saying anything, well then so be it.</t>
   </si>
   <si>
+    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg33306</t>
   </si>
   <si>
     <t>No I would not because i would have taken a vow say to stick by them in sickness and health. They might be sick in the head but she would be my wife. If anything id be trying to find a way to keep her from getting caught.</t>
   </si>
   <si>
+    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg33302</t>
   </si>
   <si>
     <t>I would not turn him in unless he killed a more than one because there is no way it could be an accident more than once. I think if i loved the person enough i could hide the facts and act like it never happened.</t>
+  </si>
+  <si>
+    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -238,40 +342,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -279,361 +387,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B36" activeCellId="0" pane="topLeft" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.668367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.93877551020408"/>
+    <col customWidth="1" max="2" min="2" style="1" width="107.668367346939"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>71</v>
       </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/murder_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/murder_contra.xlsx
@@ -28,7 +28,7 @@
     <t>I wouldnt turn her in becuase she is my wife. She made a mistake that we can get over it. If she trusted me by telling me what she did then I couldn't do that to her.</t>
   </si>
   <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>arg33373</t>
@@ -37,7 +37,7 @@
     <t>I really dont have an exact yes or no answer to this question depending on the situation. If It really got all out of hand and the police new it was my man that did it and they got all the evidence and witnesses that prove it was him that convicted the crime then yes I would turn him in. If they know its him then its just a matter of time.</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
   </si>
   <si>
     <t>arg33346</t>
@@ -46,7 +46,7 @@
     <t>No. I would not turn my spouse in. I would try to convince him to do the right thing and turn his own self in. But i dont see it as my place to go and turn him in. but it also depends on the reason behind him killing someone. it just cant be some random killing because i would turn him in for that for the fact that i would think that i would be next to get killed.</t>
   </si>
   <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>arg33259</t>
@@ -55,7 +55,7 @@
     <t>All I want to say to the spouses of the people on this side of the debate, "Don't confide in your spouse and tell them that you killed somebody; they'll turn you in! And if they find out on their own, take them out before they turn you in!" ;)</t>
   </si>
   <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg33352</t>
@@ -64,7 +64,7 @@
     <t>If my husband committed murder I wouldn't turn them in because I know he must have had a good reason to do it. Everybody makes mistakes in this world and this would be a wrong decision he took. I love him and I feel that in love we should be by your partner throught the thick and thin no matter what. I wouldn't want my husband to be in jail.</t>
   </si>
   <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
   </si>
   <si>
     <t>arg33328</t>
@@ -73,7 +73,7 @@
     <t>Well it all pretty much depends....Like if she killed someone that deserved it well it would still be scary to sleep with them so this a maybe / maybe not situation... So yeah im not to sure.</t>
   </si>
   <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
   </si>
   <si>
     <t>arg33285</t>
@@ -82,7 +82,7 @@
     <t>No I wouldn't turn in my spouse. Just because the girl that i married killed someone doesn't make them a terrible person. People make mistakes.</t>
   </si>
   <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
   </si>
   <si>
     <t>arg33358</t>
@@ -91,7 +91,7 @@
     <t>No way,  That's even better than a prenup :)  her: "I'm leaving you and taking half your shit."  me: "Hope you like prison b*^#h"</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg33341</t>
@@ -100,7 +100,7 @@
     <t>If my spouse committed murder I would not turn him in. I would do the exact opposite I will help him hide all evidence if any, I will move if we had to, and I will never bring it up to his attention again. If my husband killed someone, he knew what he was doing, so there or it was for a cost. It would be hard for me to turn in the one I love.</t>
   </si>
   <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
   </si>
   <si>
     <t>arg33279</t>
@@ -109,7 +109,7 @@
     <t>It really depends on what had happened, she would have to tell me the story and I would have to be able to sympathize with her and understand why she did what she did. If I truly felt that she was remorseful for what she did and I can sympathize with her about why she committed murder than maybe I could forgive her and not turn her in.</t>
   </si>
   <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
   </si>
   <si>
     <t>arg33233</t>
@@ -118,7 +118,7 @@
     <t>If my wife confided in me than I wouldn't betray her trust. She trusted me to support and help her and I would. I would be extremely angry and maybe even divorce her depending on what type of murder whether it be like a self defence murder or she just thought it would be fun.</t>
   </si>
   <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
   </si>
   <si>
     <t>arg33262</t>
@@ -127,7 +127,7 @@
     <t>Of course not! Absolutely not! Its something that happened, a mistake she made, and something she would definitely learn from. She was strong enough to tell me about it, something not a lot of people of would done. I'm pretty sure that's not easy for someone to do. Anyone else would of just kept to themselves and not tell anyone. If that were to ever happen, which I strongly doubt, I would definitely support her and be with her, no matter what!</t>
   </si>
   <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>arg33353</t>
@@ -136,7 +136,7 @@
     <t>No, I wouldn't turn my spouse in I would just be like. You told me I had know part in it. And we are just going to go our separate ways. But truthfully I wouldn't want to know in the first place.</t>
   </si>
   <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
   </si>
   <si>
     <t>arg33255</t>
@@ -145,7 +145,7 @@
     <t>Love is much greater then any mistake. I know things happen but my wife will be able to confide in me no matter what goes wrong. I made a commitment to stay whit her through rough times and I will. Murder is a unforgivable mistake but love is not.</t>
   </si>
   <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
   </si>
   <si>
     <t>arg33326</t>
@@ -154,7 +154,7 @@
     <t>No I would not turn them in, because it would be to weird for me to turn them in to the police. I would probably wouldn't tell anybody. I would hope that the police catch them but I would not say anything. I would tell them to turn their self in.</t>
   </si>
   <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
   </si>
   <si>
     <t>arg33288</t>
@@ -163,7 +163,7 @@
     <t>As human beings, we are selfish and have been fabricated with a survival mechanism that tell is to do whatever whenever to protect the ones that we love. I would do everything in my power to protect my love, even if that means taking this horrible secret to the grave.</t>
   </si>
   <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
   </si>
   <si>
     <t>arg33237</t>
@@ -172,7 +172,7 @@
     <t>If my wife was to commit murder and told me about it. I wouldnt turn her in because if you really love her then you would have her back through anything good or bad.</t>
   </si>
   <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
   </si>
   <si>
     <t>arg33354</t>
@@ -181,7 +181,7 @@
     <t>No I would not turn in my spouse because when you get married you promise to be there for eachother through good or through worse and I would anything to help her but, don't get me wrong though if my spouse were to get caught I will not go down with her because most likley I would have a family to take care of and would not leave them for anything.</t>
   </si>
   <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
   </si>
   <si>
     <t>arg33300</t>
@@ -190,7 +190,7 @@
     <t>If my husband where to commit a murder I would most likely not turn him in. He's my husband and I'm going to be there for him for better or for worst. Yes he made a big mistake and he should pay for it I know that but i don't think I'll have the heart to turn in the man I love. We have to protect each other and be their for each other no matter how bad it is. Even if it makes me his accomplice.</t>
   </si>
   <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
   </si>
   <si>
     <t>arg33252</t>
@@ -199,7 +199,7 @@
     <t>If I do that, then who's going to cook and clean house? Who's gonna have sex with me? I'm too old to do the dating scene all over again. Besides, you don't specify who she killed or why. Maybe she had her reasons. Not everyone deserves to live, you know? ;)</t>
   </si>
   <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>arg33283</t>
@@ -208,7 +208,7 @@
     <t>I wouldn't turn my wife in because I love her and married her for a reason. I would trust my wife that she killed someone for a good reason, relatively because murder is still murder. Gene hackman killed the guy her wife was cheating with.</t>
   </si>
   <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
   </si>
   <si>
     <t>arg33243</t>
@@ -217,7 +217,7 @@
     <t>No I wouldn't tell on him because you never know what the reason might be for him to kill that person or it could have been for self defense for all we know and if the people come question me about anything I DON'T KNOW NOTHING.....he have my trust and I wouldn't let him down for no reason plus his secret is safe with me...</t>
   </si>
   <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3</t>
   </si>
   <si>
     <t>arg33320</t>
@@ -226,7 +226,7 @@
     <t>I dont believe i would turn them in because of love.But i certainly would not stay with her; i would move away from her as far as i could.For the simple reason i wouldnt want to be involed with the crime, because i knew about it.</t>
   </si>
   <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
   </si>
   <si>
     <t>arg33242</t>
@@ -235,7 +235,7 @@
     <t>More than likely I would not turn in my spouse, because there is that love that binds us together. But on the flip side, if it was just down right cold blooded murder, yes I would turn them in.</t>
   </si>
   <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
   </si>
   <si>
     <t>arg33257</t>
@@ -244,7 +244,7 @@
     <t>Well I definitely would stick by my vows of marriage through the good times and the bad but I mean some people get married without truly knowing who the person is. Hmmm that is a hard one. Well if I truly loved this person I would not turn them in because, I mean I made a promise to them that they could turn to me for help in thick and thin till death do us part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>arg33265</t>
@@ -253,7 +253,7 @@
     <t>No way, Marriage (in my eyes) is supposed to be a Bond/Partnership.  Not that I'm calling anyone who would turn his or her spouse in to police  A "Snitch" or a rat, but If my wife where to kill someone,'  I wouldnt hesitate to flex the 5th amendment! Murder Is a heavy offense  But Remember, when you say "I DO", you're basically inviting the person  You're marrying into the Family. So ask yourself... would YOU turn in FAMILY??  If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>arg33319</t>
@@ -262,7 +262,7 @@
     <t>I really don't know because i think it depends on who she murdered and how it happened. If it was self defense then no I wouldn't tell the police, but if she just went crazy and murdered someone then yes i would tell the police.</t>
   </si>
   <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>arg33343</t>
@@ -271,7 +271,7 @@
     <t>I would turn him in because he murdered someone. Don't get me worng I would try to persuade him first to turn himself in but if that didn't happen I would have to take reponsiblity for him. Plus I wouldn't want to feel the guilt of always knowing that I didn't turn that murder in. If he truly loved me I wouldn't have killed someone.</t>
   </si>
   <si>
-    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
+    <t>16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
   </si>
   <si>
     <t>arg33296</t>
@@ -280,7 +280,7 @@
     <t>If my husband had committed a murder I think I would not turn him in because my feelings would be stronger that the fear of having a bad husband, I am not sure of my exact answer but I am sure that I couldn't look at him everyday and act like nothing happened, I believe that feeling are stronger than anything and I would not like the fact that he would probably be sentenced to death or spend the rest of his life in prison.</t>
   </si>
   <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>arg33225</t>
@@ -289,7 +289,7 @@
     <t>I dont think i could turn my spouse in, or my family and friends if they committed a murder because those people are way to close to me and i couldnt picture my life without any of them. Why would anyone send away someone they love, i think that is wong especialy if you live with the person.</t>
   </si>
   <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81</t>
   </si>
   <si>
     <t>arg33270</t>
@@ -298,7 +298,7 @@
     <t>No. I couldn't imagine turning on my spouse like that. I know if i were to do something like that she will be right there next to me not saying a word. Plus if she were to kill someone it would be for a good reason.</t>
   </si>
   <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
   </si>
   <si>
     <t>arg33333</t>
@@ -307,7 +307,7 @@
     <t>No. I wouldn't be able to turn them in. If you truly love someone you would do anything to help them. Especially if it was an accident.  Though, if he killed some one just because he felt like killing somone it may be a little different, because I wouldnt want him to go nuts and kill me too.</t>
   </si>
   <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
   </si>
   <si>
     <t>arg33298</t>
@@ -316,7 +316,7 @@
     <t>If it was the person you truly love and want to spend the rest of your life with then it's a definitely no. People make mistakes but although it's a major crime to murder someone I would still not turn in the person I love the most. If I plan on staying with that person I love for the rest of my life then I would stick with them and never turn them in. And if that means that I am part of that murder by not saying anything, well then so be it.</t>
   </si>
   <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
   </si>
   <si>
     <t>arg33306</t>
@@ -325,7 +325,7 @@
     <t>No I would not because i would have taken a vow say to stick by them in sickness and health. They might be sick in the head but she would be my wife. If anything id be trying to find a way to keep her from getting caught.</t>
   </si>
   <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
   </si>
   <si>
     <t>arg33302</t>
@@ -334,7 +334,7 @@
     <t>I would not turn him in unless he killed a more than one because there is no way it could be an accident more than once. I think if i loved the person enough i could hide the facts and act like it never happened.</t>
   </si>
   <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
   </si>
 </sst>
 </file>
